--- a/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Tamaño/N_Train_300/Tests_Estadisticos/dm_comparaciones_Sieve Bootstrap_General.xlsx
@@ -441,10 +441,10 @@
         <v>40</v>
       </c>
       <c r="C2">
-        <v>-0.1100133027618129</v>
+        <v>-0.1183573370942024</v>
       </c>
       <c r="D2">
-        <v>0.9124032058090874</v>
+        <v>0.906481031471261</v>
       </c>
       <c r="E2">
         <v>0.5963830703219654</v>
@@ -467,10 +467,10 @@
         <v>60</v>
       </c>
       <c r="C3">
-        <v>0.07909090072932294</v>
+        <v>0.07613461832351974</v>
       </c>
       <c r="D3">
-        <v>0.9369634615257278</v>
+        <v>0.9397582409044707</v>
       </c>
       <c r="E3">
         <v>0.5963830703219654</v>
@@ -493,10 +493,10 @@
         <v>100</v>
       </c>
       <c r="C4">
-        <v>4.63865302855046</v>
+        <v>3.626171437064089</v>
       </c>
       <c r="D4">
-        <v>3.595647325216333E-06</v>
+        <v>0.0009316760458732976</v>
       </c>
       <c r="E4">
         <v>0.5963830703219654</v>
@@ -519,10 +519,10 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>3.336926422557738</v>
+        <v>3.334993276412798</v>
       </c>
       <c r="D5">
-        <v>0.0008532402541447937</v>
+        <v>0.002071206097957745</v>
       </c>
       <c r="E5">
         <v>0.5963830703219654</v>
@@ -545,10 +545,10 @@
         <v>60</v>
       </c>
       <c r="C6">
-        <v>0.1639099577856327</v>
+        <v>0.2240742811785195</v>
       </c>
       <c r="D6">
-        <v>0.8698086016484528</v>
+        <v>0.8240405718134338</v>
       </c>
       <c r="E6">
         <v>0.5977152990850086</v>
@@ -571,10 +571,10 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>4.28195896018174</v>
+        <v>5.087106460513424</v>
       </c>
       <c r="D7">
-        <v>1.886992260313747E-05</v>
+        <v>1.324391514123668E-05</v>
       </c>
       <c r="E7">
         <v>0.5977152990850086</v>
@@ -597,10 +597,10 @@
         <v>200</v>
       </c>
       <c r="C8">
-        <v>3.092829766676318</v>
+        <v>4.103493458588746</v>
       </c>
       <c r="D8">
-        <v>0.001993425024455098</v>
+        <v>0.0002404574569832008</v>
       </c>
       <c r="E8">
         <v>0.5977152990850086</v>
@@ -623,10 +623,10 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>4.328856357861522</v>
+        <v>4.785891634404568</v>
       </c>
       <c r="D9">
-        <v>1.527912589471825E-05</v>
+        <v>3.249406826966172E-05</v>
       </c>
       <c r="E9">
         <v>0.5955389959113214</v>
@@ -649,10 +649,10 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>3.309724228234634</v>
+        <v>5.878888308529246</v>
       </c>
       <c r="D10">
-        <v>0.0009404418953924409</v>
+        <v>1.236973069751457E-06</v>
       </c>
       <c r="E10">
         <v>0.5955389959113214</v>
@@ -675,10 +675,10 @@
         <v>200</v>
       </c>
       <c r="C11">
-        <v>-1.116043097583727</v>
+        <v>-1.249362027993026</v>
       </c>
       <c r="D11">
-        <v>0.2644569040043203</v>
+        <v>0.2200655082014473</v>
       </c>
       <c r="E11">
         <v>0.5463872239820363</v>
